--- a/biology/Zoologie/Hamadryas_velutina/Hamadryas_velutina.xlsx
+++ b/biology/Zoologie/Hamadryas_velutina/Hamadryas_velutina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hamadryas velutina est une espèce de lépidoptères (papillons) de la famille des Nymphalidae et de la sous-famille des Biblidinae et du genre Hamadryas.
 </t>
@@ -511,14 +523,11 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hamadryas velutina a été décrite par Henry Walter Bates en 1865 sous le nom initial d' Ageronia velutina[1].
-Sous-espèces
-Hamadryas velutina velutina
-Hamadryas velutina browni Jenkins, 1983[1].
-Nom vernaculaire
-Hamadryas velutina se nomme Velutina Cracker en anglais[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hamadryas velutina a été décrite par Henry Walter Bates en 1865 sous le nom initial d' Ageronia velutina.
 </t>
         </is>
       </c>
@@ -544,10 +553,86 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Hamadryas velutina velutina
+Hamadryas velutina browni Jenkins, 1983.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Hamadryas_velutina</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hamadryas_velutina</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Nom vernaculaire</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hamadryas velutina se nomme Velutina Cracker en anglais.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Hamadryas_velutina</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hamadryas_velutina</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Hamadryas velutina est un papillon au dessus bleu nuit avec des lignes de points et de chevrons bleu clair.
 Le revers est bleu nuit avec aux ailes postérieures une ligne submarginale de points rouge.
@@ -555,64 +640,102 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Hamadryas_velutina</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Hamadryas_velutina</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Hamadryas_velutina</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Hamadryas_velutina</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hamadryas velutina est présent au Brésil et au Pérou[1],[3].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hamadryas velutina est présent au Brésil et au Pérou,.
 Sur les autres projets Wikimedia :
 Hamadryas velutina, sur Wikimedia CommonsHamadryas velutina, sur Wikispecies
-Biotope
-Protection
-Pas de statut de protection particulier.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Hamadryas_velutina</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hamadryas_velutina</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
